--- a/converter/src/test/resources/table generator tests.xlsx
+++ b/converter/src/test/resources/table generator tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\kotlin\AlfaConverter\converter\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70685B-2BCB-41B5-B587-DFE0ACB92ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95924FEC-DD89-4869-9C96-7DEDDA52D4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18375" yWindow="2445" windowWidth="15525" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="нужный формат" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
